--- a/Files/1.xlsx
+++ b/Files/1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27203"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaynam.Sanghvi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54DBAF4-DE2D-4677-9CB4-45B4BDB73EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{44C6083A-A0EC-448F-80A1-4E67B901611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD630F53-F443-44AE-A3CC-C724E7EE85F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE0AA670-A851-4662-BE46-594CCE520F71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="2" xr2:uid="{2E64F7FB-8801-4194-8642-272531A33AE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Training Summary" sheetId="5" r:id="rId1"/>
+    <sheet name="Training-Plan-Status(Beginner)" sheetId="4" r:id="rId2"/>
+    <sheet name="Training-PlanStatus(Intermedia)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,33 +38,420 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>abc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+  <si>
+    <t>TrainingPlan for Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. No </t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Duration (in days)</t>
+  </si>
+  <si>
+    <t>Planned Start Date</t>
+  </si>
+  <si>
+    <t>Planned End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual start date </t>
+  </si>
+  <si>
+    <t>Actual Completion date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Angular Beginner</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Angular Intermediate</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>No of weeks</t>
+  </si>
+  <si>
+    <t>Angular_Beginner_Level Training Contents(10 Days)</t>
+  </si>
+  <si>
+    <t>Prerequisites:(Candidates should have basic understanding on basics of (Html ,CSS,TypeScript))</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Contents Coverage</t>
+  </si>
+  <si>
+    <t>Duration (day wise)</t>
+  </si>
+  <si>
+    <t>Planned start date</t>
+  </si>
+  <si>
+    <t>Planned end date</t>
+  </si>
+  <si>
+    <t>Actual start date</t>
+  </si>
+  <si>
+    <t>actual end date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End Design Basics </t>
+  </si>
+  <si>
+    <t>Different technologies used in front end design</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Typescript</t>
+  </si>
+  <si>
+    <t>Introduction of TypeScript</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Variable declaration and function declaration</t>
+  </si>
+  <si>
+    <t>Array and Tuple</t>
+  </si>
+  <si>
+    <t>ArrowFunction</t>
+  </si>
+  <si>
+    <t>Arrow Function</t>
+  </si>
+  <si>
+    <t>OOPs in Typescript</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming in Typescript</t>
+  </si>
+  <si>
+    <t>Data Initialization in Constructors</t>
+  </si>
+  <si>
+    <t>Inheritance, super keyword usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular History </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular usage and benefits </t>
+  </si>
+  <si>
+    <t>Angular CLI</t>
+  </si>
+  <si>
+    <t>Installation of Angular</t>
+  </si>
+  <si>
+    <t>Creating Angular Application</t>
+  </si>
+  <si>
+    <t>Angular Directory Structure</t>
+  </si>
+  <si>
+    <t>Life Cycle Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Component </t>
+  </si>
+  <si>
+    <t>Routing and linking component</t>
+  </si>
+  <si>
+    <t>Installing BootStrap and Jquery</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>Applying Directives</t>
+  </si>
+  <si>
+    <t>Transfering Data Using Pipes</t>
+  </si>
+  <si>
+    <t>Angular Forms</t>
+  </si>
+  <si>
+    <t>Template Driven forms</t>
+  </si>
+  <si>
+    <t>Reactive Forms</t>
+  </si>
+  <si>
+    <t>Validation on form data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing web pages in Angular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services in Angular </t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HttpClient </t>
+  </si>
+  <si>
+    <t>Capstone Project work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating full front end using angular, bootstrap </t>
+  </si>
+  <si>
+    <t>Angular_Intermediate_Level Training Contents(10 Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisites:(Candidates should have good understanding of Angular or Should have completed the Beginner Module) </t>
+  </si>
+  <si>
+    <t>Actual end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Material </t>
+  </si>
+  <si>
+    <t>Introduction &amp; Usage</t>
+  </si>
+  <si>
+    <t>Angular Material Vs Bootstrap</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating first Application using Angular Material </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Directory Structure </t>
+  </si>
+  <si>
+    <t>Icons, Widgets, Forms</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menubar</t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Side-Nav</t>
+  </si>
+  <si>
+    <t>Material Select</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Progressbar</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>Fab-toolbar and ToolTip</t>
+  </si>
+  <si>
+    <t>Stepper</t>
+  </si>
+  <si>
+    <t>Ripples</t>
+  </si>
+  <si>
+    <t>Expansion Panel</t>
+  </si>
+  <si>
+    <t>Toggle Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting Data in Material </t>
+  </si>
+  <si>
+    <t>Snackbar</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>Toasts/Whiteframe</t>
+  </si>
+  <si>
+    <t>Flipping card</t>
+  </si>
+  <si>
+    <t>Displaying data with data source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -70,14 +459,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -104,39 +684,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -299,6 +879,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -307,13 +894,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -378,52 +958,2112 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC0A7C9-8FE1-4187-8CB6-9834C6746F7E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05D9986-389A-44D4-8851-DF612E19146D}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.15">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18">
+        <v>45182</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45198</v>
+      </c>
+      <c r="F4" s="18">
+        <v>45182</v>
+      </c>
+      <c r="G4" s="19">
+        <v>45198</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24">
+        <v>45202</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45219</v>
+      </c>
+      <c r="F5" s="24">
+        <v>45202</v>
+      </c>
+      <c r="G5" s="24">
+        <v>45219</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25">
+        <f>SUM(C4:C5)</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="40"/>
+      <c r="B7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25">
+        <f>C6/5</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'Training-Plan-Status(Beginner)'!A1" display="Angular Beginner" xr:uid="{0B0166E7-1B94-4354-B692-DE2E0D52889F}"/>
+    <hyperlink ref="B5" location="'Training-PlanStatus(Intermedia)'!A1" display="Angular Intermediate" xr:uid="{5D31E9AA-2C8D-4983-ACDA-7BAE0E25C009}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5D9DCF-029C-4721-9E3A-692477D63097}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>45182</v>
+      </c>
+      <c r="F4" s="29">
+        <v>45182</v>
+      </c>
+      <c r="G4" s="29">
+        <v>45182</v>
+      </c>
+      <c r="H4" s="29">
+        <v>45182</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="31">
+        <v>45182</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45182</v>
+      </c>
+      <c r="G5" s="33">
+        <v>45182</v>
+      </c>
+      <c r="H5" s="33">
+        <v>45182</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="31">
+        <v>45183</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45183</v>
+      </c>
+      <c r="G6" s="33">
+        <v>45183</v>
+      </c>
+      <c r="H6" s="33">
+        <v>45183</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="31">
+        <v>45183</v>
+      </c>
+      <c r="F7" s="33">
+        <v>45183</v>
+      </c>
+      <c r="G7" s="33">
+        <v>45183</v>
+      </c>
+      <c r="H7" s="33">
+        <v>45183</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="31">
+        <v>45183</v>
+      </c>
+      <c r="F8" s="33">
+        <v>45183</v>
+      </c>
+      <c r="G8" s="33">
+        <v>45183</v>
+      </c>
+      <c r="H8" s="33">
+        <v>45183</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="31">
+        <v>45183</v>
+      </c>
+      <c r="F9" s="33">
+        <v>45183</v>
+      </c>
+      <c r="G9" s="33">
+        <v>45183</v>
+      </c>
+      <c r="H9" s="33">
+        <v>45183</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="31">
+        <v>45183</v>
+      </c>
+      <c r="F10" s="33">
+        <v>45183</v>
+      </c>
+      <c r="G10" s="33">
+        <v>45183</v>
+      </c>
+      <c r="H10" s="33">
+        <v>45183</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>45184</v>
+      </c>
+      <c r="F12" s="33">
+        <v>45184</v>
+      </c>
+      <c r="G12" s="33">
+        <v>45184</v>
+      </c>
+      <c r="H12" s="33">
+        <v>45184</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="31">
+        <v>45184</v>
+      </c>
+      <c r="F13" s="33">
+        <v>45184</v>
+      </c>
+      <c r="G13" s="33">
+        <v>45184</v>
+      </c>
+      <c r="H13" s="33">
+        <v>45184</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="31">
+        <v>45184</v>
+      </c>
+      <c r="F14" s="33">
+        <v>45184</v>
+      </c>
+      <c r="G14" s="33">
+        <v>45184</v>
+      </c>
+      <c r="H14" s="33">
+        <v>45184</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="31">
+        <v>45184</v>
+      </c>
+      <c r="F15" s="33">
+        <v>45184</v>
+      </c>
+      <c r="G15" s="33">
+        <v>45184</v>
+      </c>
+      <c r="H15" s="33">
+        <v>45184</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F17" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G17" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H17" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F18" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G18" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H18" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F19" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G19" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H19" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F20" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G20" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H20" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F21" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G21" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H21" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="31">
+        <v>45187</v>
+      </c>
+      <c r="F22" s="33">
+        <v>45187</v>
+      </c>
+      <c r="G22" s="33">
+        <v>45187</v>
+      </c>
+      <c r="H22" s="33">
+        <v>45187</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F23" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G23" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H23" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F24" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G24" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H24" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F25" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G25" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H25" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F27" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G27" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H27" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F28" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G28" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H28" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="31">
+        <v>45191</v>
+      </c>
+      <c r="F29" s="33">
+        <v>45191</v>
+      </c>
+      <c r="G29" s="33">
+        <v>45191</v>
+      </c>
+      <c r="H29" s="33">
+        <v>45191</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="31">
+        <v>45194</v>
+      </c>
+      <c r="F30" s="33">
+        <v>45194</v>
+      </c>
+      <c r="G30" s="33">
+        <v>45194</v>
+      </c>
+      <c r="H30" s="33">
+        <v>45194</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31">
+        <v>45194</v>
+      </c>
+      <c r="F32" s="33">
+        <v>45194</v>
+      </c>
+      <c r="G32" s="33">
+        <v>45194</v>
+      </c>
+      <c r="H32" s="33">
+        <v>45194</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="31">
+        <v>45194</v>
+      </c>
+      <c r="F33" s="33">
+        <v>45194</v>
+      </c>
+      <c r="G33" s="33">
+        <v>45194</v>
+      </c>
+      <c r="H33" s="33">
+        <v>45194</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="31">
+        <v>45194</v>
+      </c>
+      <c r="F34" s="33">
+        <v>45194</v>
+      </c>
+      <c r="G34" s="33">
+        <v>45194</v>
+      </c>
+      <c r="H34" s="33">
+        <v>45194</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="31">
+        <v>45194</v>
+      </c>
+      <c r="F35" s="33">
+        <v>45194</v>
+      </c>
+      <c r="G35" s="33">
+        <v>45194</v>
+      </c>
+      <c r="H35" s="33">
+        <v>45194</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="31">
+        <v>45195</v>
+      </c>
+      <c r="F37" s="33">
+        <v>45195</v>
+      </c>
+      <c r="G37" s="33">
+        <v>45195</v>
+      </c>
+      <c r="H37" s="33">
+        <v>45195</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="31">
+        <v>45195</v>
+      </c>
+      <c r="F38" s="33">
+        <v>45195</v>
+      </c>
+      <c r="G38" s="33">
+        <v>45195</v>
+      </c>
+      <c r="H38" s="33">
+        <v>45195</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="31">
+        <v>45195</v>
+      </c>
+      <c r="F39" s="33">
+        <v>45195</v>
+      </c>
+      <c r="G39" s="33">
+        <v>45195</v>
+      </c>
+      <c r="H39" s="33">
+        <v>45195</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="31">
+        <v>45195</v>
+      </c>
+      <c r="F40" s="33">
+        <v>45195</v>
+      </c>
+      <c r="G40" s="33">
+        <v>45195</v>
+      </c>
+      <c r="H40" s="33">
+        <v>45195</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1AB57-3316-4B17-8826-0CCC738C4473}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45202</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45202</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45202</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45202</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45203</v>
+      </c>
+      <c r="F12" s="5">
+        <v>45203</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45203</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45203</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45204</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45204</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45204</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45204</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.45" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="34.9" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.65" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.65" customHeight="1">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.65" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45205</v>
+      </c>
+      <c r="F22" s="5">
+        <v>45205</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45205</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45205</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.65" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.65" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45208</v>
+      </c>
+      <c r="F28" s="5">
+        <v>45208</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45208</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45208</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="38">
+        <v>45209</v>
+      </c>
+      <c r="F32" s="38">
+        <v>45209</v>
+      </c>
+      <c r="G32" s="38">
+        <v>45209</v>
+      </c>
+      <c r="H32" s="38">
+        <v>45209</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45210</v>
+      </c>
+      <c r="F37" s="5">
+        <v>45210</v>
+      </c>
+      <c r="G37" s="5">
+        <v>45210</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45210</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027D464014D86DE45B509604636D0F6E7" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9f5ccac79bbab6eff0928e28b7ec6e2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="032eb62e-cf22-413e-b3c3-d2506fdef290" xmlns:ns3="e84a77ed-f5e4-4d36-a05a-35f01d19daa6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="854b759a7db55aa9ebde8836ca0a32b5" ns2:_="" ns3:_="">
+    <xsd:import namespace="032eb62e-cf22-413e-b3c3-d2506fdef290"/>
+    <xsd:import namespace="e84a77ed-f5e4-4d36-a05a-35f01d19daa6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="032eb62e-cf22-413e-b3c3-d2506fdef290" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e84a77ed-f5e4-4d36-a05a-35f01d19daa6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0157F8AB-0C1F-4BDB-9FAB-7FAEFCFFFC35}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2332B7F-1C9C-4D6D-B1A4-5A22234D6CD4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C83DBFE-A8AA-4F2F-8F98-B2A60A2D843A}"/>
 </file>